--- a/templates & procedures/templateBasePrix.xlsx
+++ b/templates & procedures/templateBasePrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinmarc/Documents/ETIC-git/Etude BRP/templates &amp; procedures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA309E-14F3-3B44-B004-886691287D51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA087D1-6FFD-7044-B6B6-114DB332D034}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>unite</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>4/1/1/1/1/2</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>AJOUT</t>
+  </si>
+  <si>
+    <t>SUPPR</t>
   </si>
 </sst>
 </file>
@@ -136,7 +145,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8D4691-DCC6-9D4F-95EE-70B985F20201}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,123 +474,123 @@
     <col min="2" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>200</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>500</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -590,7 +601,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -601,7 +612,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -612,7 +623,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -623,7 +634,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -634,7 +645,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -645,7 +656,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -656,7 +667,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -667,7 +678,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -678,7 +689,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -689,7 +700,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -700,7 +711,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/templates & procedures/templateBasePrix.xlsx
+++ b/templates & procedures/templateBasePrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinmarc/Documents/ETIC-git/Etude BRP/templates &amp; procedures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA087D1-6FFD-7044-B6B6-114DB332D034}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238EA12-8682-4749-9863-C8D5C19D08F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>unite</t>
   </si>
@@ -33,9 +33,6 @@
     <t>quantiteInf</t>
   </si>
   <si>
-    <t>quentiteSup</t>
-  </si>
-  <si>
     <t>prixUnitaire</t>
   </si>
   <si>
@@ -57,33 +54,21 @@
     <t>0.98</t>
   </si>
   <si>
-    <t>m^2</t>
-  </si>
-  <si>
     <t>Nom (aide operateur)</t>
   </si>
   <si>
     <t>0.34</t>
   </si>
   <si>
-    <t>4/1/1/1/1</t>
-  </si>
-  <si>
     <t>Etancheite bitume monocouche</t>
   </si>
   <si>
     <t>Depose du complexe d'etancheite</t>
   </si>
   <si>
-    <t>4/1/1/1/1/1</t>
-  </si>
-  <si>
     <t>Depose des releves d'etancheite</t>
   </si>
   <si>
-    <t>4/1/1/1/1/2</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -91,12 +76,33 @@
   </si>
   <si>
     <t>SUPPR</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>quantiteSup</t>
+  </si>
+  <si>
+    <t>4_1_1_1_1</t>
+  </si>
+  <si>
+    <t>4_1_1_1_1_1</t>
+  </si>
+  <si>
+    <t>4_1_1_1_1_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,12 +146,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,71 +477,72 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>200</v>
@@ -540,19 +553,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -561,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1">
         <v>500</v>
@@ -572,16 +585,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>

--- a/templates & procedures/templateBasePrix.xlsx
+++ b/templates & procedures/templateBasePrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinmarc/Documents/ETIC-git/Etude BRP/templates &amp; procedures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4238EA12-8682-4749-9863-C8D5C19D08F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA3F86E-13B8-6B43-A65E-576BFF4AAE21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -87,13 +87,13 @@
     <t>quantiteSup</t>
   </si>
   <si>
-    <t>4_1_1_1_1</t>
-  </si>
-  <si>
-    <t>4_1_1_1_1_1</t>
-  </si>
-  <si>
-    <t>4_1_1_1_1_2</t>
+    <t>04_AAA_01_01_01</t>
+  </si>
+  <si>
+    <t>04_AAA_01_01_01_01</t>
+  </si>
+  <si>
+    <t>04_AAA_01_01_01_02</t>
   </si>
 </sst>
 </file>
@@ -477,14 +477,15 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">

--- a/templates & procedures/templateBasePrix.xlsx
+++ b/templates & procedures/templateBasePrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentinmarc/Documents/ETIC-git/Etude BRP/templates &amp; procedures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisrob/Documents/ETIC/Etude_BRP/templates &amp; procedures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA3F86E-13B8-6B43-A65E-576BFF4AAE21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709EFFF9-C357-D042-B8FD-655FCB2A927A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
+    <workbookView xWindow="160" yWindow="700" windowWidth="28800" windowHeight="15800" xr2:uid="{9FBCDC7A-2121-CC48-B5E9-95AF4E436D87}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>unite</t>
   </si>
@@ -42,15 +42,6 @@
     <t>anneeRef</t>
   </si>
   <si>
-    <t>Ouvrage (/)</t>
-  </si>
-  <si>
-    <t>Prestation (/)</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>0.98</t>
   </si>
   <si>
@@ -94,6 +85,12 @@
   </si>
   <si>
     <t>04_AAA_01_01_01_02</t>
+  </si>
+  <si>
+    <t>Ouvrage/Prestation</t>
+  </si>
+  <si>
+    <t>NbPrixRef</t>
   </si>
 </sst>
 </file>
@@ -477,29 +474,29 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -508,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -522,19 +519,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -543,7 +540,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>200</v>
@@ -554,19 +551,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -575,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>500</v>
@@ -586,16 +583,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
